--- a/data/bioplex_data/Fp1_LargeIntestine_Bioplex.xlsx
+++ b/data/bioplex_data/Fp1_LargeIntestine_Bioplex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caltech-my.sharepoint.com/personal/anamois_caltech_edu/Documents/Caltech/MZ Lab/Write ups/Paper/Data availability/Bioplex data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caltech-my.sharepoint.com/personal/anamois_caltech_edu/Documents/Caltech/MZ Lab/Writing/Paper/Data availability/Bioplex data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_B6DC9A904F50C0945BA1C8450B49B50C7E4AC781" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD1E2D5C-C2CD-DE49-BF5E-1C152867F036}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="11_B6DC9A904F50C0945BA1C8450B49B50C7E4AC781" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5F98BFF-24E4-E149-BA3A-C3F11C0C849A}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="20920" windowHeight="17200" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="23140" windowHeight="19920" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outlier" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="127">
   <si>
     <t>Mo IL-1b (19)</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>ASO-Fp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -452,13 +455,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,6 +1215,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3447,10 +3453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection activeCell="A42" sqref="A42:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3715,6 +3721,9 @@
       <c r="J12">
         <v>6</v>
       </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -3805,7 +3814,6 @@
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3838,9 +3846,8 @@
       <c r="J16">
         <v>2</v>
       </c>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -3871,9 +3878,8 @@
       <c r="J17">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3904,9 +3910,8 @@
       <c r="J18">
         <v>4</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -3937,9 +3942,8 @@
       <c r="J19">
         <v>5</v>
       </c>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -3970,9 +3974,8 @@
       <c r="J20">
         <v>6</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -4003,9 +4006,8 @@
       <c r="J21">
         <v>7</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -4036,9 +4038,8 @@
       <c r="J22">
         <v>8</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -4069,9 +4070,8 @@
       <c r="J23">
         <v>1</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -4102,9 +4102,8 @@
       <c r="J24">
         <v>2</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -4135,9 +4134,8 @@
       <c r="J25">
         <v>3</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -4168,9 +4166,8 @@
       <c r="J26">
         <v>4</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -4201,9 +4198,8 @@
       <c r="J27">
         <v>5</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -4234,9 +4230,8 @@
       <c r="J28">
         <v>6</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -4267,9 +4262,8 @@
       <c r="J29">
         <v>7</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -4300,9 +4294,8 @@
       <c r="J30">
         <v>8</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -4333,9 +4326,8 @@
       <c r="J31">
         <v>1</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4366,9 +4358,8 @@
       <c r="J32">
         <v>2</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -4399,9 +4390,8 @@
       <c r="J33">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -4432,9 +4422,8 @@
       <c r="J34">
         <v>4</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -4465,9 +4454,8 @@
       <c r="J35">
         <v>5</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -4498,9 +4486,8 @@
       <c r="J36">
         <v>6</v>
       </c>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -4531,9 +4518,8 @@
       <c r="J37">
         <v>7</v>
       </c>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -4564,9 +4550,8 @@
       <c r="J38">
         <v>8</v>
       </c>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -4597,1133 +4582,29 @@
       <c r="J39">
         <v>9</v>
       </c>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K40" s="3"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45">
-        <v>23710.23</v>
-      </c>
-      <c r="H45">
-        <v>68627.06</v>
-      </c>
-      <c r="I45" t="s">
-        <v>122</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46">
-        <v>19596.580000000002</v>
-      </c>
-      <c r="F46">
-        <v>2739.46</v>
-      </c>
-      <c r="G46">
-        <v>4649.9399999999996</v>
-      </c>
-      <c r="H46">
-        <v>12110.07</v>
-      </c>
-      <c r="I46" t="s">
-        <v>122</v>
-      </c>
-      <c r="J46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47">
-        <v>1192.9000000000001</v>
-      </c>
-      <c r="D47">
-        <v>913.58</v>
-      </c>
-      <c r="E47">
-        <v>3862.8</v>
-      </c>
-      <c r="F47">
-        <v>582.91</v>
-      </c>
-      <c r="G47">
-        <v>1485.89</v>
-      </c>
-      <c r="H47">
-        <v>3594.33</v>
-      </c>
-      <c r="I47" t="s">
-        <v>122</v>
-      </c>
-      <c r="J47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48">
-        <v>562.41</v>
-      </c>
-      <c r="D48">
-        <v>217.69</v>
-      </c>
-      <c r="E48">
-        <v>1322.72</v>
-      </c>
-      <c r="F48">
-        <v>147.49</v>
-      </c>
-      <c r="G48">
-        <v>426.08</v>
-      </c>
-      <c r="H48">
-        <v>1106.72</v>
-      </c>
-      <c r="I48" t="s">
-        <v>122</v>
-      </c>
-      <c r="J48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49">
-        <v>132.53</v>
-      </c>
-      <c r="D49">
-        <v>58.58</v>
-      </c>
-      <c r="E49">
-        <v>238.01</v>
-      </c>
-      <c r="F49">
-        <v>35.729999999999997</v>
-      </c>
-      <c r="G49">
-        <v>65.209999999999994</v>
-      </c>
-      <c r="H49">
-        <v>224.24</v>
-      </c>
-      <c r="I49" t="s">
-        <v>122</v>
-      </c>
-      <c r="J49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50">
-        <v>37.46</v>
-      </c>
-      <c r="D50">
-        <v>14.09</v>
-      </c>
-      <c r="E50">
-        <v>86.36</v>
-      </c>
-      <c r="F50">
-        <v>11.64</v>
-      </c>
-      <c r="G50">
-        <v>26.3</v>
-      </c>
-      <c r="H50">
-        <v>54.55</v>
-      </c>
-      <c r="I50" t="s">
-        <v>122</v>
-      </c>
-      <c r="J50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51">
-        <v>8.17</v>
-      </c>
-      <c r="D51">
-        <v>3.43</v>
-      </c>
-      <c r="E51">
-        <v>13.6</v>
-      </c>
-      <c r="F51" t="s">
-        <v>92</v>
-      </c>
-      <c r="G51">
-        <v>6.49</v>
-      </c>
-      <c r="H51">
-        <v>13.83</v>
-      </c>
-      <c r="I51" t="s">
-        <v>122</v>
-      </c>
-      <c r="J51">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="F52">
-        <v>3.41</v>
-      </c>
-      <c r="G52">
-        <v>0.75</v>
-      </c>
-      <c r="H52">
-        <v>4.16</v>
-      </c>
-      <c r="I52" t="s">
-        <v>122</v>
-      </c>
-      <c r="J52">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="3">
-        <v>34.42</v>
-      </c>
-      <c r="F53" s="3">
-        <v>12.57</v>
-      </c>
-      <c r="G53" s="3">
-        <v>34.19</v>
-      </c>
-      <c r="H53" s="3">
-        <v>8.32</v>
-      </c>
-      <c r="I53" t="s">
-        <v>123</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="3">
-        <v>16.34</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="3">
-        <v>106.49</v>
-      </c>
-      <c r="F54" s="3">
-        <v>38.4</v>
-      </c>
-      <c r="G54" s="3">
-        <v>31.31</v>
-      </c>
-      <c r="H54" s="3">
-        <v>34.1</v>
-      </c>
-      <c r="I54" t="s">
-        <v>123</v>
-      </c>
-      <c r="J54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="3">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="3">
-        <v>77.55</v>
-      </c>
-      <c r="F55" s="3">
-        <v>23.29</v>
-      </c>
-      <c r="G55" s="3">
-        <v>38.61</v>
-      </c>
-      <c r="H55" s="3">
-        <v>27.67</v>
-      </c>
-      <c r="I55" t="s">
-        <v>123</v>
-      </c>
-      <c r="J55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="3">
-        <v>16.34</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="3">
-        <v>63.17</v>
-      </c>
-      <c r="F56" s="3">
-        <v>20.68</v>
-      </c>
-      <c r="G56" s="3">
-        <v>28.5</v>
-      </c>
-      <c r="H56" s="3">
-        <v>21.27</v>
-      </c>
-      <c r="I56" t="s">
-        <v>123</v>
-      </c>
-      <c r="J56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="3">
-        <v>5.55</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" s="3">
-        <v>34.42</v>
-      </c>
-      <c r="F57" s="3">
-        <v>12.57</v>
-      </c>
-      <c r="G57" s="3">
-        <v>35.65</v>
-      </c>
-      <c r="H57" s="3">
-        <v>14.86</v>
-      </c>
-      <c r="I57" t="s">
-        <v>123</v>
-      </c>
-      <c r="J57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E58" s="3">
-        <v>91.99</v>
-      </c>
-      <c r="F58" s="3">
-        <v>33.450000000000003</v>
-      </c>
-      <c r="G58" s="3">
-        <v>40.11</v>
-      </c>
-      <c r="H58" s="3">
-        <v>34.1</v>
-      </c>
-      <c r="I58" t="s">
-        <v>123</v>
-      </c>
-      <c r="J58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="3">
-        <v>11.35</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" s="3">
-        <v>106.49</v>
-      </c>
-      <c r="F59" s="3">
-        <v>33.450000000000003</v>
-      </c>
-      <c r="G59" s="3">
-        <v>32.74</v>
-      </c>
-      <c r="H59" s="3">
-        <v>40.57</v>
-      </c>
-      <c r="I59" t="s">
-        <v>123</v>
-      </c>
-      <c r="J59">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="3">
-        <v>18.93</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" s="3">
-        <v>106.49</v>
-      </c>
-      <c r="F60" s="3">
-        <v>28.42</v>
-      </c>
-      <c r="G60" s="3">
-        <v>32.74</v>
-      </c>
-      <c r="H60" s="3">
-        <v>34.1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>123</v>
-      </c>
-      <c r="J60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="3">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="D61" s="3">
-        <v>8.33</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>12.57</v>
-      </c>
-      <c r="G61" s="3">
-        <v>35.65</v>
-      </c>
-      <c r="H61" s="3">
-        <v>21.27</v>
-      </c>
-      <c r="I61" t="s">
-        <v>124</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62" s="3">
-        <v>21.57</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E62" s="3">
-        <v>77.55</v>
-      </c>
-      <c r="F62" s="3">
-        <v>23.29</v>
-      </c>
-      <c r="G62" s="3">
-        <v>108.18</v>
-      </c>
-      <c r="H62" s="3">
-        <v>24.47</v>
-      </c>
-      <c r="I62" t="s">
-        <v>124</v>
-      </c>
-      <c r="J62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" s="3">
-        <v>11.35</v>
-      </c>
-      <c r="D63" s="3">
-        <v>8.33</v>
-      </c>
-      <c r="E63" s="3">
-        <v>63.17</v>
-      </c>
-      <c r="F63" s="3">
-        <v>20.68</v>
-      </c>
-      <c r="G63" s="3">
-        <v>43.15</v>
-      </c>
-      <c r="H63" s="3">
-        <v>21.27</v>
-      </c>
-      <c r="I63" t="s">
-        <v>124</v>
-      </c>
-      <c r="J63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" s="3">
-        <v>18.93</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="3">
-        <v>34.42</v>
-      </c>
-      <c r="F64" s="3">
-        <v>28.42</v>
-      </c>
-      <c r="G64" s="3">
-        <v>34.19</v>
-      </c>
-      <c r="H64" s="3">
-        <v>30.88</v>
-      </c>
-      <c r="I64" t="s">
-        <v>124</v>
-      </c>
-      <c r="J64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="3">
-        <v>4.47</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="3">
-        <v>34.42</v>
-      </c>
-      <c r="F65" s="3">
-        <v>18.02</v>
-      </c>
-      <c r="G65" s="3">
-        <v>17.87</v>
-      </c>
-      <c r="H65" s="3">
-        <v>21.27</v>
-      </c>
-      <c r="I65" t="s">
-        <v>124</v>
-      </c>
-      <c r="J65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" s="3">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>18.02</v>
-      </c>
-      <c r="G66" s="3">
-        <v>20.420000000000002</v>
-      </c>
-      <c r="H66" s="3">
-        <v>14.86</v>
-      </c>
-      <c r="I66" t="s">
-        <v>124</v>
-      </c>
-      <c r="J66">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" s="3">
-        <v>13.81</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E67" s="3">
-        <v>77.55</v>
-      </c>
-      <c r="F67" s="3">
-        <v>23.29</v>
-      </c>
-      <c r="G67" s="3">
-        <v>31.31</v>
-      </c>
-      <c r="H67" s="3">
-        <v>21.27</v>
-      </c>
-      <c r="I67" t="s">
-        <v>124</v>
-      </c>
-      <c r="J67">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="3">
-        <v>6.66</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E68" s="3">
-        <v>135.71</v>
-      </c>
-      <c r="F68" s="3">
-        <v>23.29</v>
-      </c>
-      <c r="G68" s="3">
-        <v>25.74</v>
-      </c>
-      <c r="H68" s="3">
-        <v>21.27</v>
-      </c>
-      <c r="I68" t="s">
-        <v>124</v>
-      </c>
-      <c r="J68">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="3">
-        <v>10.14</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E69" s="3">
-        <v>63.17</v>
-      </c>
-      <c r="F69" s="3">
-        <v>23.29</v>
-      </c>
-      <c r="G69" s="3">
-        <v>34.19</v>
-      </c>
-      <c r="H69" s="3">
-        <v>37.33</v>
-      </c>
-      <c r="I69" t="s">
-        <v>125</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="3">
-        <v>13.81</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E70" s="3">
-        <v>84.77</v>
-      </c>
-      <c r="F70" s="3">
-        <v>9.74</v>
-      </c>
-      <c r="G70" s="3">
-        <v>49.39</v>
-      </c>
-      <c r="H70" s="3">
-        <v>21.27</v>
-      </c>
-      <c r="I70" t="s">
-        <v>125</v>
-      </c>
-      <c r="J70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="3">
-        <v>11.35</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E71" s="3">
-        <v>91.99</v>
-      </c>
-      <c r="F71" s="3">
-        <v>18.02</v>
-      </c>
-      <c r="G71" s="3">
-        <v>21.73</v>
-      </c>
-      <c r="H71" s="3">
-        <v>53.7</v>
-      </c>
-      <c r="I71" t="s">
-        <v>125</v>
-      </c>
-      <c r="J71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72" s="3">
-        <v>6.66</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E72" s="3">
-        <v>34.42</v>
-      </c>
-      <c r="F72" s="3">
-        <v>9.74</v>
-      </c>
-      <c r="G72" s="3">
-        <v>23.05</v>
-      </c>
-      <c r="H72" s="3">
-        <v>14.86</v>
-      </c>
-      <c r="I72" t="s">
-        <v>125</v>
-      </c>
-      <c r="J72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="3">
-        <v>11.35</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E73" s="3">
-        <v>143.06</v>
-      </c>
-      <c r="F73" s="3">
-        <v>23.29</v>
-      </c>
-      <c r="G73" s="3">
-        <v>71.06</v>
-      </c>
-      <c r="H73" s="3">
-        <v>34.1</v>
-      </c>
-      <c r="I73" t="s">
-        <v>125</v>
-      </c>
-      <c r="J73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="3">
-        <v>26.98</v>
-      </c>
-      <c r="D74" s="3">
-        <v>9.84</v>
-      </c>
-      <c r="E74" s="3">
-        <v>225.56</v>
-      </c>
-      <c r="F74" s="3">
-        <v>50.47</v>
-      </c>
-      <c r="G74" s="3">
-        <v>122.19</v>
-      </c>
-      <c r="H74" s="3">
-        <v>67.11</v>
-      </c>
-      <c r="I74" t="s">
-        <v>125</v>
-      </c>
-      <c r="J74">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="3">
-        <v>18.93</v>
-      </c>
-      <c r="D75" s="3">
-        <v>12.95</v>
-      </c>
-      <c r="E75" s="3">
-        <v>143.06</v>
-      </c>
-      <c r="F75" s="3">
-        <v>38.4</v>
-      </c>
-      <c r="G75" s="3">
-        <v>52.59</v>
-      </c>
-      <c r="H75" s="3">
-        <v>27.67</v>
-      </c>
-      <c r="I75" t="s">
-        <v>125</v>
-      </c>
-      <c r="J75">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="3">
-        <v>32.56</v>
-      </c>
-      <c r="D76" s="3">
-        <v>17</v>
-      </c>
-      <c r="E76" s="3">
-        <v>303.3</v>
-      </c>
-      <c r="F76" s="3">
-        <v>52.84</v>
-      </c>
-      <c r="G76" s="3">
-        <v>87.22</v>
-      </c>
-      <c r="H76" s="3">
-        <v>67.11</v>
-      </c>
-      <c r="I76" t="s">
-        <v>125</v>
-      </c>
-      <c r="J76">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77" s="3">
-        <v>10.14</v>
-      </c>
-      <c r="D77" s="3">
-        <v>6.87</v>
-      </c>
-      <c r="E77" s="3">
-        <v>91.99</v>
-      </c>
-      <c r="F77" s="3">
-        <v>23.29</v>
-      </c>
-      <c r="G77" s="3">
-        <v>43.15</v>
-      </c>
-      <c r="H77" s="3">
-        <v>40.57</v>
-      </c>
-      <c r="I77" t="s">
-        <v>125</v>
-      </c>
-      <c r="J77">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5735,10 +4616,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6901,1167 +5782,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>89</v>
+      <c r="A43" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44">
-        <v>19</v>
-      </c>
-      <c r="E44">
-        <v>11</v>
-      </c>
-      <c r="F44">
-        <v>8</v>
-      </c>
-      <c r="G44">
-        <v>13</v>
-      </c>
-      <c r="H44">
-        <v>6</v>
-      </c>
-      <c r="I44" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45">
-        <v>1265.5</v>
-      </c>
-      <c r="D45">
-        <v>1044.5</v>
-      </c>
-      <c r="E45">
-        <v>1049.5</v>
-      </c>
-      <c r="F45">
-        <v>463</v>
-      </c>
-      <c r="G45">
-        <v>1145</v>
-      </c>
-      <c r="H45">
-        <v>1605.5</v>
-      </c>
-      <c r="I45" t="s">
-        <v>122</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46">
-        <v>432.5</v>
-      </c>
-      <c r="D46">
-        <v>636</v>
-      </c>
-      <c r="E46">
-        <v>355</v>
-      </c>
-      <c r="F46">
-        <v>188</v>
-      </c>
-      <c r="G46">
-        <v>603</v>
-      </c>
-      <c r="H46">
-        <v>751</v>
-      </c>
-      <c r="I46" t="s">
-        <v>122</v>
-      </c>
-      <c r="J46">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47">
-        <v>424</v>
-      </c>
-      <c r="D47">
-        <v>671</v>
-      </c>
-      <c r="E47">
-        <v>226.5</v>
-      </c>
-      <c r="F47">
-        <v>171</v>
-      </c>
-      <c r="G47">
-        <v>343</v>
-      </c>
-      <c r="H47">
-        <v>392.5</v>
-      </c>
-      <c r="I47" t="s">
-        <v>122</v>
-      </c>
-      <c r="J47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48">
-        <v>283</v>
-      </c>
-      <c r="D48">
-        <v>212</v>
-      </c>
-      <c r="E48">
-        <v>133</v>
-      </c>
-      <c r="F48">
-        <v>77</v>
-      </c>
-      <c r="G48">
-        <v>169</v>
-      </c>
-      <c r="H48">
-        <v>190</v>
-      </c>
-      <c r="I48" t="s">
-        <v>122</v>
-      </c>
-      <c r="J48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49">
-        <v>85.5</v>
-      </c>
-      <c r="D49">
-        <v>83</v>
-      </c>
-      <c r="E49">
-        <v>44.5</v>
-      </c>
-      <c r="F49">
-        <v>26</v>
-      </c>
-      <c r="G49">
-        <v>55</v>
-      </c>
-      <c r="H49">
-        <v>62.5</v>
-      </c>
-      <c r="I49" t="s">
-        <v>122</v>
-      </c>
-      <c r="J49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50">
-        <v>32</v>
-      </c>
-      <c r="D50">
-        <v>39</v>
-      </c>
-      <c r="E50">
-        <v>25.5</v>
-      </c>
-      <c r="F50">
-        <v>16</v>
-      </c>
-      <c r="G50">
-        <v>34</v>
-      </c>
-      <c r="H50">
-        <v>23</v>
-      </c>
-      <c r="I50" t="s">
-        <v>122</v>
-      </c>
-      <c r="J50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51">
-        <v>12</v>
-      </c>
-      <c r="D51">
-        <v>26</v>
-      </c>
-      <c r="E51">
-        <v>15.5</v>
-      </c>
-      <c r="F51">
-        <v>11.5</v>
-      </c>
-      <c r="G51">
-        <v>20</v>
-      </c>
-      <c r="H51">
-        <v>11</v>
-      </c>
-      <c r="I51" t="s">
-        <v>122</v>
-      </c>
-      <c r="J51">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52">
-        <v>7</v>
-      </c>
-      <c r="D52">
-        <v>29</v>
-      </c>
-      <c r="E52">
-        <v>13</v>
-      </c>
-      <c r="F52">
-        <v>13</v>
-      </c>
-      <c r="G52">
-        <v>14.5</v>
-      </c>
-      <c r="H52">
-        <v>8</v>
-      </c>
-      <c r="I52" t="s">
-        <v>122</v>
-      </c>
-      <c r="J52">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53">
-        <v>6</v>
-      </c>
-      <c r="D53">
-        <v>22</v>
-      </c>
-      <c r="E53">
-        <v>16</v>
-      </c>
-      <c r="F53">
-        <v>14</v>
-      </c>
-      <c r="G53">
-        <v>28</v>
-      </c>
-      <c r="H53">
-        <v>8</v>
-      </c>
-      <c r="I53" t="s">
-        <v>123</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54">
-        <v>12</v>
-      </c>
-      <c r="D54">
-        <v>23.5</v>
-      </c>
-      <c r="E54">
-        <v>21</v>
-      </c>
-      <c r="F54">
-        <v>19</v>
-      </c>
-      <c r="G54">
-        <v>27</v>
-      </c>
-      <c r="H54">
-        <v>12</v>
-      </c>
-      <c r="I54" t="s">
-        <v>123</v>
-      </c>
-      <c r="J54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55">
-        <v>9</v>
-      </c>
-      <c r="D55">
-        <v>24</v>
-      </c>
-      <c r="E55">
-        <v>19</v>
-      </c>
-      <c r="F55">
-        <v>16</v>
-      </c>
-      <c r="G55">
-        <v>29.5</v>
-      </c>
-      <c r="H55">
-        <v>11</v>
-      </c>
-      <c r="I55" t="s">
-        <v>123</v>
-      </c>
-      <c r="J55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56">
-        <v>12</v>
-      </c>
-      <c r="D56">
-        <v>20</v>
-      </c>
-      <c r="E56">
-        <v>18</v>
-      </c>
-      <c r="F56">
-        <v>15.5</v>
-      </c>
-      <c r="G56">
-        <v>26</v>
-      </c>
-      <c r="H56">
-        <v>10</v>
-      </c>
-      <c r="I56" t="s">
-        <v>123</v>
-      </c>
-      <c r="J56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57">
-        <v>7.5</v>
-      </c>
-      <c r="D57">
-        <v>21</v>
-      </c>
-      <c r="E57">
-        <v>16</v>
-      </c>
-      <c r="F57">
-        <v>14</v>
-      </c>
-      <c r="G57">
-        <v>28.5</v>
-      </c>
-      <c r="H57">
-        <v>9</v>
-      </c>
-      <c r="I57" t="s">
-        <v>123</v>
-      </c>
-      <c r="J57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58">
-        <v>8.5</v>
-      </c>
-      <c r="D58">
-        <v>20</v>
-      </c>
-      <c r="E58">
-        <v>20</v>
-      </c>
-      <c r="F58">
-        <v>18</v>
-      </c>
-      <c r="G58">
-        <v>30</v>
-      </c>
-      <c r="H58">
-        <v>12</v>
-      </c>
-      <c r="I58" t="s">
-        <v>123</v>
-      </c>
-      <c r="J58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59">
-        <v>10</v>
-      </c>
-      <c r="D59">
-        <v>20</v>
-      </c>
-      <c r="E59">
-        <v>21</v>
-      </c>
-      <c r="F59">
-        <v>18</v>
-      </c>
-      <c r="G59">
-        <v>27.5</v>
-      </c>
-      <c r="H59">
-        <v>13</v>
-      </c>
-      <c r="I59" t="s">
-        <v>123</v>
-      </c>
-      <c r="J59">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60">
-        <v>13</v>
-      </c>
-      <c r="D60">
-        <v>21.5</v>
-      </c>
-      <c r="E60">
-        <v>21</v>
-      </c>
-      <c r="F60">
-        <v>17</v>
-      </c>
-      <c r="G60">
-        <v>27.5</v>
-      </c>
-      <c r="H60">
-        <v>12</v>
-      </c>
-      <c r="I60" t="s">
-        <v>123</v>
-      </c>
-      <c r="J60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61">
-        <v>9</v>
-      </c>
-      <c r="D61">
-        <v>27</v>
-      </c>
-      <c r="E61">
-        <v>15</v>
-      </c>
-      <c r="F61">
-        <v>14</v>
-      </c>
-      <c r="G61">
-        <v>28.5</v>
-      </c>
-      <c r="H61">
-        <v>10</v>
-      </c>
-      <c r="I61" t="s">
-        <v>124</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62">
-        <v>14</v>
-      </c>
-      <c r="D62">
-        <v>24</v>
-      </c>
-      <c r="E62">
-        <v>19</v>
-      </c>
-      <c r="F62">
-        <v>16</v>
-      </c>
-      <c r="G62">
-        <v>49.5</v>
-      </c>
-      <c r="H62">
-        <v>10.5</v>
-      </c>
-      <c r="I62" t="s">
-        <v>124</v>
-      </c>
-      <c r="J62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63">
-        <v>10</v>
-      </c>
-      <c r="D63">
-        <v>27</v>
-      </c>
-      <c r="E63">
-        <v>18</v>
-      </c>
-      <c r="F63">
-        <v>15.5</v>
-      </c>
-      <c r="G63">
-        <v>31</v>
-      </c>
-      <c r="H63">
-        <v>10</v>
-      </c>
-      <c r="I63" t="s">
-        <v>124</v>
-      </c>
-      <c r="J63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64">
-        <v>13</v>
-      </c>
-      <c r="D64">
-        <v>22.5</v>
-      </c>
-      <c r="E64">
-        <v>16</v>
-      </c>
-      <c r="F64">
-        <v>17</v>
-      </c>
-      <c r="G64">
-        <v>28</v>
-      </c>
-      <c r="H64">
-        <v>11.5</v>
-      </c>
-      <c r="I64" t="s">
-        <v>124</v>
-      </c>
-      <c r="J64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65">
-        <v>7</v>
-      </c>
-      <c r="D65">
-        <v>16</v>
-      </c>
-      <c r="E65">
-        <v>16</v>
-      </c>
-      <c r="F65">
-        <v>15</v>
-      </c>
-      <c r="G65">
-        <v>22</v>
-      </c>
-      <c r="H65">
-        <v>10</v>
-      </c>
-      <c r="I65" t="s">
-        <v>124</v>
-      </c>
-      <c r="J65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66">
-        <v>9</v>
-      </c>
-      <c r="D66">
-        <v>14</v>
-      </c>
-      <c r="E66">
-        <v>15</v>
-      </c>
-      <c r="F66">
-        <v>15</v>
-      </c>
-      <c r="G66">
-        <v>23</v>
-      </c>
-      <c r="H66">
-        <v>9</v>
-      </c>
-      <c r="I66" t="s">
-        <v>124</v>
-      </c>
-      <c r="J66">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67">
-        <v>11</v>
-      </c>
-      <c r="D67">
-        <v>21</v>
-      </c>
-      <c r="E67">
-        <v>19</v>
-      </c>
-      <c r="F67">
-        <v>16</v>
-      </c>
-      <c r="G67">
-        <v>27</v>
-      </c>
-      <c r="H67">
-        <v>10</v>
-      </c>
-      <c r="I67" t="s">
-        <v>124</v>
-      </c>
-      <c r="J67">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68">
-        <v>8</v>
-      </c>
-      <c r="D68">
-        <v>25</v>
-      </c>
-      <c r="E68">
-        <v>23</v>
-      </c>
-      <c r="F68">
-        <v>16</v>
-      </c>
-      <c r="G68">
-        <v>25</v>
-      </c>
-      <c r="H68">
-        <v>10</v>
-      </c>
-      <c r="I68" t="s">
-        <v>124</v>
-      </c>
-      <c r="J68">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69">
-        <v>9.5</v>
-      </c>
-      <c r="D69">
-        <v>18</v>
-      </c>
-      <c r="E69">
-        <v>18</v>
-      </c>
-      <c r="F69">
-        <v>16</v>
-      </c>
-      <c r="G69">
-        <v>28</v>
-      </c>
-      <c r="H69">
-        <v>12.5</v>
-      </c>
-      <c r="I69" t="s">
-        <v>125</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70">
-        <v>11</v>
-      </c>
-      <c r="D70">
-        <v>20</v>
-      </c>
-      <c r="E70">
-        <v>19.5</v>
-      </c>
-      <c r="F70">
-        <v>13.5</v>
-      </c>
-      <c r="G70">
-        <v>33</v>
-      </c>
-      <c r="H70">
-        <v>10</v>
-      </c>
-      <c r="I70" t="s">
-        <v>125</v>
-      </c>
-      <c r="J70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71">
-        <v>10</v>
-      </c>
-      <c r="D71">
-        <v>14</v>
-      </c>
-      <c r="E71">
-        <v>20</v>
-      </c>
-      <c r="F71">
-        <v>15</v>
-      </c>
-      <c r="G71">
-        <v>23.5</v>
-      </c>
-      <c r="H71">
-        <v>15</v>
-      </c>
-      <c r="I71" t="s">
-        <v>125</v>
-      </c>
-      <c r="J71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72">
-        <v>8</v>
-      </c>
-      <c r="D72">
-        <v>13.5</v>
-      </c>
-      <c r="E72">
-        <v>16</v>
-      </c>
-      <c r="F72">
-        <v>13.5</v>
-      </c>
-      <c r="G72">
-        <v>24</v>
-      </c>
-      <c r="H72">
-        <v>9</v>
-      </c>
-      <c r="I72" t="s">
-        <v>125</v>
-      </c>
-      <c r="J72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73">
-        <v>10</v>
-      </c>
-      <c r="D73">
-        <v>25</v>
-      </c>
-      <c r="E73">
-        <v>23.5</v>
-      </c>
-      <c r="F73">
-        <v>16</v>
-      </c>
-      <c r="G73">
-        <v>39.5</v>
-      </c>
-      <c r="H73">
-        <v>12</v>
-      </c>
-      <c r="I73" t="s">
-        <v>125</v>
-      </c>
-      <c r="J73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74">
-        <v>16</v>
-      </c>
-      <c r="D74">
-        <v>28</v>
-      </c>
-      <c r="E74">
-        <v>29</v>
-      </c>
-      <c r="F74">
-        <v>21.5</v>
-      </c>
-      <c r="G74">
-        <v>53</v>
-      </c>
-      <c r="H74">
-        <v>17</v>
-      </c>
-      <c r="I74" t="s">
-        <v>125</v>
-      </c>
-      <c r="J74">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75">
-        <v>13</v>
-      </c>
-      <c r="D75">
-        <v>30</v>
-      </c>
-      <c r="E75">
-        <v>23.5</v>
-      </c>
-      <c r="F75">
-        <v>19</v>
-      </c>
-      <c r="G75">
-        <v>34</v>
-      </c>
-      <c r="H75">
-        <v>11</v>
-      </c>
-      <c r="I75" t="s">
-        <v>125</v>
-      </c>
-      <c r="J75">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76">
-        <v>18</v>
-      </c>
-      <c r="D76">
-        <v>32.5</v>
-      </c>
-      <c r="E76">
-        <v>34</v>
-      </c>
-      <c r="F76">
-        <v>22</v>
-      </c>
-      <c r="G76">
-        <v>44</v>
-      </c>
-      <c r="H76">
-        <v>17</v>
-      </c>
-      <c r="I76" t="s">
-        <v>125</v>
-      </c>
-      <c r="J76">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77">
-        <v>9.5</v>
-      </c>
-      <c r="D77">
-        <v>26</v>
-      </c>
-      <c r="E77">
-        <v>20</v>
-      </c>
-      <c r="F77">
-        <v>16</v>
-      </c>
-      <c r="G77">
-        <v>31</v>
-      </c>
-      <c r="H77">
-        <v>13</v>
-      </c>
-      <c r="I77" t="s">
-        <v>125</v>
-      </c>
-      <c r="J77">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8074,10 +5816,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8773,698 +6515,27 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>120</v>
+      <c r="A42" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>103</v>
+      <c r="A43" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45">
-        <v>35519</v>
-      </c>
-      <c r="D45">
-        <v>14438</v>
-      </c>
-      <c r="E45">
-        <v>70668</v>
-      </c>
-      <c r="F45">
-        <v>9398</v>
-      </c>
-      <c r="G45">
-        <v>21832</v>
-      </c>
-      <c r="H45">
-        <v>58700</v>
-      </c>
-      <c r="I45" t="s">
-        <v>122</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46">
-        <v>8879.75</v>
-      </c>
-      <c r="D46">
-        <v>3609.5</v>
-      </c>
-      <c r="E46">
-        <v>17667</v>
-      </c>
-      <c r="F46">
-        <v>2349.5</v>
-      </c>
-      <c r="G46">
-        <v>5458</v>
-      </c>
-      <c r="H46">
-        <v>14675</v>
-      </c>
-      <c r="I46" t="s">
-        <v>122</v>
-      </c>
-      <c r="J46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47">
-        <v>2219.94</v>
-      </c>
-      <c r="D47">
-        <v>902.38</v>
-      </c>
-      <c r="E47">
-        <v>4416.75</v>
-      </c>
-      <c r="F47">
-        <v>587.38</v>
-      </c>
-      <c r="G47">
-        <v>1364.5</v>
-      </c>
-      <c r="H47">
-        <v>3668.75</v>
-      </c>
-      <c r="I47" t="s">
-        <v>122</v>
-      </c>
-      <c r="J47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48">
-        <v>554.98</v>
-      </c>
-      <c r="D48">
-        <v>225.59</v>
-      </c>
-      <c r="E48">
-        <v>1104.19</v>
-      </c>
-      <c r="F48">
-        <v>146.84</v>
-      </c>
-      <c r="G48">
-        <v>341.13</v>
-      </c>
-      <c r="H48">
-        <v>917.19</v>
-      </c>
-      <c r="I48" t="s">
-        <v>122</v>
-      </c>
-      <c r="J48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49">
-        <v>138.75</v>
-      </c>
-      <c r="D49">
-        <v>56.4</v>
-      </c>
-      <c r="E49">
-        <v>276.05</v>
-      </c>
-      <c r="F49">
-        <v>36.71</v>
-      </c>
-      <c r="G49">
-        <v>85.28</v>
-      </c>
-      <c r="H49">
-        <v>229.3</v>
-      </c>
-      <c r="I49" t="s">
-        <v>122</v>
-      </c>
-      <c r="J49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50">
-        <v>34.69</v>
-      </c>
-      <c r="D50">
-        <v>14.1</v>
-      </c>
-      <c r="E50">
-        <v>69.010000000000005</v>
-      </c>
-      <c r="F50">
-        <v>9.18</v>
-      </c>
-      <c r="G50">
-        <v>21.32</v>
-      </c>
-      <c r="H50">
-        <v>57.32</v>
-      </c>
-      <c r="I50" t="s">
-        <v>122</v>
-      </c>
-      <c r="J50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51">
-        <v>8.67</v>
-      </c>
-      <c r="D51">
-        <v>3.52</v>
-      </c>
-      <c r="E51">
-        <v>17.25</v>
-      </c>
-      <c r="F51">
-        <v>2.29</v>
-      </c>
-      <c r="G51">
-        <v>5.33</v>
-      </c>
-      <c r="H51">
-        <v>14.33</v>
-      </c>
-      <c r="I51" t="s">
-        <v>122</v>
-      </c>
-      <c r="J51">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52">
-        <v>2.17</v>
-      </c>
-      <c r="D52">
-        <v>0.88</v>
-      </c>
-      <c r="E52">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="F52">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G52">
-        <v>1.33</v>
-      </c>
-      <c r="H52">
-        <v>3.58</v>
-      </c>
-      <c r="I52" t="s">
-        <v>122</v>
-      </c>
-      <c r="J52">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" t="s">
-        <v>28</v>
-      </c>
-      <c r="I53" t="s">
-        <v>123</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" t="s">
-        <v>30</v>
-      </c>
-      <c r="I54" t="s">
-        <v>123</v>
-      </c>
-      <c r="J54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" t="s">
-        <v>123</v>
-      </c>
-      <c r="J55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" t="s">
-        <v>34</v>
-      </c>
-      <c r="I56" t="s">
-        <v>123</v>
-      </c>
-      <c r="J56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" t="s">
-        <v>36</v>
-      </c>
-      <c r="I57" t="s">
-        <v>123</v>
-      </c>
-      <c r="J57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" t="s">
-        <v>38</v>
-      </c>
-      <c r="I58" t="s">
-        <v>123</v>
-      </c>
-      <c r="J58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" t="s">
-        <v>40</v>
-      </c>
-      <c r="I59" t="s">
-        <v>123</v>
-      </c>
-      <c r="J59">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" t="s">
-        <v>42</v>
-      </c>
-      <c r="I60" t="s">
-        <v>123</v>
-      </c>
-      <c r="J60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" t="s">
-        <v>44</v>
-      </c>
-      <c r="I61" t="s">
-        <v>124</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" t="s">
-        <v>46</v>
-      </c>
-      <c r="I62" t="s">
-        <v>124</v>
-      </c>
-      <c r="J62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" t="s">
-        <v>48</v>
-      </c>
-      <c r="I63" t="s">
-        <v>124</v>
-      </c>
-      <c r="J63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" t="s">
-        <v>50</v>
-      </c>
-      <c r="I64" t="s">
-        <v>124</v>
-      </c>
-      <c r="J64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" t="s">
-        <v>52</v>
-      </c>
-      <c r="I65" t="s">
-        <v>124</v>
-      </c>
-      <c r="J65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" t="s">
-        <v>54</v>
-      </c>
-      <c r="I66" t="s">
-        <v>124</v>
-      </c>
-      <c r="J66">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" t="s">
-        <v>56</v>
-      </c>
-      <c r="I67" t="s">
-        <v>124</v>
-      </c>
-      <c r="J67">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" t="s">
-        <v>58</v>
-      </c>
-      <c r="I68" t="s">
-        <v>124</v>
-      </c>
-      <c r="J68">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" t="s">
-        <v>60</v>
-      </c>
-      <c r="I69" t="s">
-        <v>125</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" t="s">
-        <v>62</v>
-      </c>
-      <c r="I70" t="s">
-        <v>125</v>
-      </c>
-      <c r="J70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" t="s">
-        <v>64</v>
-      </c>
-      <c r="I71" t="s">
-        <v>125</v>
-      </c>
-      <c r="J71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I72" t="s">
-        <v>125</v>
-      </c>
-      <c r="J72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" t="s">
-        <v>68</v>
-      </c>
-      <c r="I73" t="s">
-        <v>125</v>
-      </c>
-      <c r="J73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" t="s">
-        <v>70</v>
-      </c>
-      <c r="I74" t="s">
-        <v>125</v>
-      </c>
-      <c r="J74">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" t="s">
-        <v>72</v>
-      </c>
-      <c r="I75" t="s">
-        <v>125</v>
-      </c>
-      <c r="J75">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" t="s">
-        <v>74</v>
-      </c>
-      <c r="I76" t="s">
-        <v>125</v>
-      </c>
-      <c r="J76">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>76</v>
-      </c>
-      <c r="I77" t="s">
-        <v>125</v>
-      </c>
-      <c r="J77">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
         <v>88</v>
       </c>
     </row>
@@ -9476,10 +6547,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9493,1497 +6564,1177 @@
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C8">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>71</v>
+      </c>
+      <c r="E8">
+        <v>52</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C9">
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>58</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>61</v>
+      </c>
+      <c r="H9">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C10">
+        <v>58</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>51</v>
+      </c>
+      <c r="F10">
+        <v>53</v>
+      </c>
+      <c r="G10">
+        <v>65</v>
+      </c>
+      <c r="H10">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C11">
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>68</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>58</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C13">
+        <v>74</v>
+      </c>
+      <c r="D13">
+        <v>77</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>68</v>
+      </c>
+      <c r="H13">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>73</v>
+      </c>
+      <c r="E14">
+        <v>64</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>55</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>66</v>
+      </c>
+      <c r="G15">
+        <v>61</v>
+      </c>
+      <c r="H15">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C16">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>41</v>
+      </c>
+      <c r="F16">
+        <v>67</v>
+      </c>
+      <c r="G16">
+        <v>48</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C17">
+        <v>61</v>
+      </c>
+      <c r="D17">
+        <v>66</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>85</v>
+      </c>
+      <c r="H17">
+        <v>55</v>
+      </c>
+      <c r="I17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C18">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>54</v>
+      </c>
+      <c r="E18">
+        <v>55</v>
+      </c>
+      <c r="F18">
+        <v>54</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>53</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C19">
+        <v>61</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>67</v>
+      </c>
+      <c r="F19">
+        <v>51</v>
+      </c>
+      <c r="G19">
+        <v>68</v>
+      </c>
+      <c r="H19">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C20">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>95</v>
+      </c>
+      <c r="H20">
+        <v>69</v>
+      </c>
+      <c r="I20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C21">
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>65</v>
+      </c>
+      <c r="E21">
+        <v>71</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>68</v>
+      </c>
+      <c r="H21">
+        <v>55</v>
+      </c>
+      <c r="I21" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>69</v>
+      </c>
+      <c r="E22">
+        <v>61</v>
+      </c>
+      <c r="F22">
+        <v>69</v>
+      </c>
+      <c r="G22">
+        <v>71</v>
+      </c>
+      <c r="H22">
+        <v>53</v>
+      </c>
+      <c r="I22" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>75</v>
+      </c>
+      <c r="E23">
+        <v>71</v>
+      </c>
+      <c r="F23">
+        <v>59</v>
+      </c>
+      <c r="G23">
+        <v>74</v>
+      </c>
+      <c r="H23">
+        <v>64</v>
+      </c>
+      <c r="I23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>70</v>
+      </c>
+      <c r="E24">
+        <v>87</v>
+      </c>
+      <c r="F24">
+        <v>79</v>
+      </c>
+      <c r="G24">
+        <v>66</v>
+      </c>
+      <c r="H24">
+        <v>72</v>
+      </c>
+      <c r="I24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="C25">
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <v>69</v>
+      </c>
+      <c r="E25">
+        <v>78</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>96</v>
+      </c>
+      <c r="H25">
+        <v>62</v>
+      </c>
+      <c r="I25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>45</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="C26">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>55</v>
+      </c>
+      <c r="E26">
+        <v>64</v>
+      </c>
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>92</v>
+      </c>
+      <c r="H26">
+        <v>62</v>
+      </c>
+      <c r="I26" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C27">
+        <v>80</v>
+      </c>
+      <c r="D27">
+        <v>73</v>
+      </c>
+      <c r="E27">
+        <v>79</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>79</v>
+      </c>
+      <c r="H27">
+        <v>59</v>
+      </c>
+      <c r="I27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="C28">
+        <v>57</v>
+      </c>
+      <c r="D28">
+        <v>60</v>
+      </c>
+      <c r="E28">
+        <v>53</v>
+      </c>
+      <c r="F28">
+        <v>54</v>
+      </c>
+      <c r="G28">
+        <v>74</v>
+      </c>
+      <c r="H28">
+        <v>50</v>
+      </c>
+      <c r="I28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C29">
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <v>52</v>
+      </c>
+      <c r="E29">
+        <v>59</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>77</v>
+      </c>
+      <c r="H29">
+        <v>63</v>
+      </c>
+      <c r="I29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C30">
+        <v>57</v>
+      </c>
+      <c r="D30">
+        <v>76</v>
+      </c>
+      <c r="E30">
+        <v>64</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>71</v>
+      </c>
+      <c r="H30">
+        <v>67</v>
+      </c>
+      <c r="I30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>55</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="C31">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>62</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>66</v>
+      </c>
+      <c r="H31">
+        <v>68</v>
+      </c>
+      <c r="I31" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <v>70</v>
+      </c>
+      <c r="E32">
+        <v>63</v>
+      </c>
+      <c r="F32">
+        <v>55</v>
+      </c>
+      <c r="G32">
+        <v>63</v>
+      </c>
+      <c r="H32">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s">
+        <v>124</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C33">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>77</v>
+      </c>
+      <c r="E33">
+        <v>72</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>55</v>
+      </c>
+      <c r="H33">
+        <v>50</v>
+      </c>
+      <c r="I33" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34">
+        <v>69</v>
+      </c>
+      <c r="D34">
+        <v>81</v>
+      </c>
+      <c r="E34">
+        <v>46</v>
+      </c>
+      <c r="F34">
+        <v>58</v>
+      </c>
+      <c r="G34">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
-        <v>66</v>
+      <c r="H34">
+        <v>69</v>
+      </c>
+      <c r="I34" t="s">
+        <v>125</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="C35">
+        <v>54</v>
+      </c>
+      <c r="D35">
+        <v>69</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+      <c r="F35">
+        <v>79</v>
+      </c>
+      <c r="G35">
+        <v>70</v>
+      </c>
+      <c r="H35">
+        <v>70</v>
+      </c>
+      <c r="I35" t="s">
+        <v>125</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="C36">
+        <v>74</v>
+      </c>
+      <c r="D36">
+        <v>64</v>
+      </c>
+      <c r="E36">
+        <v>75</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>91</v>
+      </c>
+      <c r="H36">
+        <v>50</v>
+      </c>
+      <c r="I36" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="C37">
+        <v>58</v>
+      </c>
+      <c r="D37">
+        <v>64</v>
+      </c>
+      <c r="E37">
+        <v>78</v>
+      </c>
+      <c r="F37">
+        <v>56</v>
+      </c>
+      <c r="G37">
+        <v>50</v>
+      </c>
+      <c r="H37">
+        <v>59</v>
+      </c>
+      <c r="I37" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="C38">
+        <v>66</v>
+      </c>
+      <c r="D38">
+        <v>53</v>
+      </c>
+      <c r="E38">
+        <v>51</v>
+      </c>
+      <c r="F38">
+        <v>56</v>
+      </c>
+      <c r="G38">
+        <v>58</v>
+      </c>
+      <c r="H38">
+        <v>50</v>
+      </c>
+      <c r="I38" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39">
+        <v>67</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>54</v>
+      </c>
+      <c r="F39">
+        <v>61</v>
+      </c>
+      <c r="G39">
+        <v>58</v>
+      </c>
+      <c r="H39">
+        <v>59</v>
+      </c>
+      <c r="I39" t="s">
+        <v>125</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40">
+        <v>67</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>66</v>
+      </c>
+      <c r="F40">
+        <v>57</v>
+      </c>
+      <c r="G40">
+        <v>57</v>
+      </c>
+      <c r="H40">
+        <v>55</v>
+      </c>
+      <c r="I40" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>75</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>120</v>
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <v>55</v>
+      </c>
+      <c r="F41">
+        <v>60</v>
+      </c>
+      <c r="G41">
+        <v>58</v>
+      </c>
+      <c r="H41">
+        <v>76</v>
+      </c>
+      <c r="I41" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41">
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>104</v>
+      <c r="A43" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44">
-        <v>55</v>
-      </c>
-      <c r="D44">
-        <v>71</v>
-      </c>
-      <c r="E44">
-        <v>52</v>
-      </c>
-      <c r="F44">
-        <v>50</v>
-      </c>
-      <c r="G44">
-        <v>50</v>
-      </c>
-      <c r="H44">
-        <v>64</v>
-      </c>
-      <c r="I44" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45">
-        <v>56</v>
-      </c>
-      <c r="D45">
-        <v>58</v>
-      </c>
-      <c r="E45">
-        <v>50</v>
-      </c>
-      <c r="F45">
-        <v>56</v>
-      </c>
-      <c r="G45">
-        <v>61</v>
-      </c>
-      <c r="H45">
-        <v>66</v>
-      </c>
-      <c r="I45" t="s">
-        <v>122</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46">
-        <v>58</v>
-      </c>
-      <c r="D46">
-        <v>50</v>
-      </c>
-      <c r="E46">
-        <v>51</v>
-      </c>
-      <c r="F46">
-        <v>53</v>
-      </c>
-      <c r="G46">
-        <v>65</v>
-      </c>
-      <c r="H46">
-        <v>59</v>
-      </c>
-      <c r="I46" t="s">
-        <v>122</v>
-      </c>
-      <c r="J46">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47">
-        <v>63</v>
-      </c>
-      <c r="D47">
-        <v>52</v>
-      </c>
-      <c r="E47">
-        <v>64</v>
-      </c>
-      <c r="F47">
-        <v>68</v>
-      </c>
-      <c r="G47">
-        <v>50</v>
-      </c>
-      <c r="H47">
-        <v>64</v>
-      </c>
-      <c r="I47" t="s">
-        <v>122</v>
-      </c>
-      <c r="J47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48">
-        <v>60</v>
-      </c>
-      <c r="D48">
-        <v>58</v>
-      </c>
-      <c r="E48">
-        <v>60</v>
-      </c>
-      <c r="F48">
-        <v>50</v>
-      </c>
-      <c r="G48">
-        <v>50</v>
-      </c>
-      <c r="H48">
-        <v>63</v>
-      </c>
-      <c r="I48" t="s">
-        <v>122</v>
-      </c>
-      <c r="J48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49">
-        <v>74</v>
-      </c>
-      <c r="D49">
-        <v>77</v>
-      </c>
-      <c r="E49">
-        <v>50</v>
-      </c>
-      <c r="F49">
-        <v>60</v>
-      </c>
-      <c r="G49">
-        <v>68</v>
-      </c>
-      <c r="H49">
-        <v>62</v>
-      </c>
-      <c r="I49" t="s">
-        <v>122</v>
-      </c>
-      <c r="J49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50">
-        <v>60</v>
-      </c>
-      <c r="D50">
-        <v>73</v>
-      </c>
-      <c r="E50">
-        <v>64</v>
-      </c>
-      <c r="F50">
-        <v>60</v>
-      </c>
-      <c r="G50">
-        <v>50</v>
-      </c>
-      <c r="H50">
-        <v>79</v>
-      </c>
-      <c r="I50" t="s">
-        <v>122</v>
-      </c>
-      <c r="J50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51">
-        <v>55</v>
-      </c>
-      <c r="D51">
-        <v>55</v>
-      </c>
-      <c r="E51">
-        <v>50</v>
-      </c>
-      <c r="F51">
-        <v>66</v>
-      </c>
-      <c r="G51">
-        <v>61</v>
-      </c>
-      <c r="H51">
-        <v>58</v>
-      </c>
-      <c r="I51" t="s">
-        <v>122</v>
-      </c>
-      <c r="J51">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52">
-        <v>45</v>
-      </c>
-      <c r="D52">
-        <v>37</v>
-      </c>
-      <c r="E52">
-        <v>41</v>
-      </c>
-      <c r="F52">
-        <v>67</v>
-      </c>
-      <c r="G52">
-        <v>48</v>
-      </c>
-      <c r="H52">
-        <v>50</v>
-      </c>
-      <c r="I52" t="s">
-        <v>122</v>
-      </c>
-      <c r="J52">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53">
-        <v>61</v>
-      </c>
-      <c r="D53">
-        <v>66</v>
-      </c>
-      <c r="E53">
-        <v>65</v>
-      </c>
-      <c r="F53">
-        <v>50</v>
-      </c>
-      <c r="G53">
-        <v>85</v>
-      </c>
-      <c r="H53">
-        <v>55</v>
-      </c>
-      <c r="I53" t="s">
-        <v>123</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54">
-        <v>58</v>
-      </c>
-      <c r="D54">
-        <v>54</v>
-      </c>
-      <c r="E54">
-        <v>55</v>
-      </c>
-      <c r="F54">
-        <v>54</v>
-      </c>
-      <c r="G54">
-        <v>50</v>
-      </c>
-      <c r="H54">
-        <v>53</v>
-      </c>
-      <c r="I54" t="s">
-        <v>123</v>
-      </c>
-      <c r="J54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55">
-        <v>61</v>
-      </c>
-      <c r="D55">
-        <v>75</v>
-      </c>
-      <c r="E55">
-        <v>67</v>
-      </c>
-      <c r="F55">
-        <v>51</v>
-      </c>
-      <c r="G55">
-        <v>68</v>
-      </c>
-      <c r="H55">
-        <v>50</v>
-      </c>
-      <c r="I55" t="s">
-        <v>123</v>
-      </c>
-      <c r="J55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56">
-        <v>51</v>
-      </c>
-      <c r="D56">
-        <v>59</v>
-      </c>
-      <c r="E56">
-        <v>60</v>
-      </c>
-      <c r="F56">
-        <v>50</v>
-      </c>
-      <c r="G56">
-        <v>95</v>
-      </c>
-      <c r="H56">
-        <v>69</v>
-      </c>
-      <c r="I56" t="s">
-        <v>123</v>
-      </c>
-      <c r="J56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57">
-        <v>64</v>
-      </c>
-      <c r="D57">
-        <v>65</v>
-      </c>
-      <c r="E57">
-        <v>71</v>
-      </c>
-      <c r="F57">
-        <v>50</v>
-      </c>
-      <c r="G57">
-        <v>68</v>
-      </c>
-      <c r="H57">
-        <v>55</v>
-      </c>
-      <c r="I57" t="s">
-        <v>123</v>
-      </c>
-      <c r="J57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58">
-        <v>50</v>
-      </c>
-      <c r="D58">
-        <v>69</v>
-      </c>
-      <c r="E58">
-        <v>61</v>
-      </c>
-      <c r="F58">
-        <v>69</v>
-      </c>
-      <c r="G58">
-        <v>71</v>
-      </c>
-      <c r="H58">
-        <v>53</v>
-      </c>
-      <c r="I58" t="s">
-        <v>123</v>
-      </c>
-      <c r="J58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59">
-        <v>50</v>
-      </c>
-      <c r="D59">
-        <v>75</v>
-      </c>
-      <c r="E59">
-        <v>71</v>
-      </c>
-      <c r="F59">
-        <v>59</v>
-      </c>
-      <c r="G59">
-        <v>74</v>
-      </c>
-      <c r="H59">
-        <v>64</v>
-      </c>
-      <c r="I59" t="s">
-        <v>123</v>
-      </c>
-      <c r="J59">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60">
-        <v>50</v>
-      </c>
-      <c r="D60">
-        <v>70</v>
-      </c>
-      <c r="E60">
-        <v>87</v>
-      </c>
-      <c r="F60">
-        <v>79</v>
-      </c>
-      <c r="G60">
-        <v>66</v>
-      </c>
-      <c r="H60">
-        <v>72</v>
-      </c>
-      <c r="I60" t="s">
-        <v>123</v>
-      </c>
-      <c r="J60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61">
-        <v>55</v>
-      </c>
-      <c r="D61">
-        <v>69</v>
-      </c>
-      <c r="E61">
-        <v>78</v>
-      </c>
-      <c r="F61">
-        <v>50</v>
-      </c>
-      <c r="G61">
-        <v>96</v>
-      </c>
-      <c r="H61">
-        <v>62</v>
-      </c>
-      <c r="I61" t="s">
-        <v>124</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62">
-        <v>58</v>
-      </c>
-      <c r="D62">
-        <v>55</v>
-      </c>
-      <c r="E62">
-        <v>64</v>
-      </c>
-      <c r="F62">
-        <v>50</v>
-      </c>
-      <c r="G62">
-        <v>92</v>
-      </c>
-      <c r="H62">
-        <v>62</v>
-      </c>
-      <c r="I62" t="s">
-        <v>124</v>
-      </c>
-      <c r="J62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63">
-        <v>80</v>
-      </c>
-      <c r="D63">
-        <v>73</v>
-      </c>
-      <c r="E63">
-        <v>79</v>
-      </c>
-      <c r="F63">
-        <v>50</v>
-      </c>
-      <c r="G63">
-        <v>79</v>
-      </c>
-      <c r="H63">
-        <v>59</v>
-      </c>
-      <c r="I63" t="s">
-        <v>124</v>
-      </c>
-      <c r="J63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64">
-        <v>57</v>
-      </c>
-      <c r="D64">
-        <v>60</v>
-      </c>
-      <c r="E64">
-        <v>53</v>
-      </c>
-      <c r="F64">
-        <v>54</v>
-      </c>
-      <c r="G64">
-        <v>74</v>
-      </c>
-      <c r="H64">
-        <v>50</v>
-      </c>
-      <c r="I64" t="s">
-        <v>124</v>
-      </c>
-      <c r="J64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>51</v>
-      </c>
-      <c r="B65" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65">
-        <v>62</v>
-      </c>
-      <c r="D65">
-        <v>52</v>
-      </c>
-      <c r="E65">
-        <v>59</v>
-      </c>
-      <c r="F65">
-        <v>50</v>
-      </c>
-      <c r="G65">
-        <v>77</v>
-      </c>
-      <c r="H65">
-        <v>63</v>
-      </c>
-      <c r="I65" t="s">
-        <v>124</v>
-      </c>
-      <c r="J65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66">
-        <v>57</v>
-      </c>
-      <c r="D66">
-        <v>76</v>
-      </c>
-      <c r="E66">
-        <v>64</v>
-      </c>
-      <c r="F66">
-        <v>50</v>
-      </c>
-      <c r="G66">
-        <v>71</v>
-      </c>
-      <c r="H66">
-        <v>67</v>
-      </c>
-      <c r="I66" t="s">
-        <v>124</v>
-      </c>
-      <c r="J66">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>55</v>
-      </c>
-      <c r="B67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67">
-        <v>55</v>
-      </c>
-      <c r="D67">
-        <v>62</v>
-      </c>
-      <c r="E67">
-        <v>65</v>
-      </c>
-      <c r="F67">
-        <v>50</v>
-      </c>
-      <c r="G67">
-        <v>66</v>
-      </c>
-      <c r="H67">
-        <v>68</v>
-      </c>
-      <c r="I67" t="s">
-        <v>124</v>
-      </c>
-      <c r="J67">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68">
-        <v>50</v>
-      </c>
-      <c r="D68">
-        <v>70</v>
-      </c>
-      <c r="E68">
-        <v>63</v>
-      </c>
-      <c r="F68">
-        <v>55</v>
-      </c>
-      <c r="G68">
-        <v>63</v>
-      </c>
-      <c r="H68">
-        <v>51</v>
-      </c>
-      <c r="I68" t="s">
-        <v>124</v>
-      </c>
-      <c r="J68">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69">
-        <v>68</v>
-      </c>
-      <c r="D69">
-        <v>77</v>
-      </c>
-      <c r="E69">
-        <v>72</v>
-      </c>
-      <c r="F69">
-        <v>50</v>
-      </c>
-      <c r="G69">
-        <v>55</v>
-      </c>
-      <c r="H69">
-        <v>50</v>
-      </c>
-      <c r="I69" t="s">
-        <v>125</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70">
-        <v>69</v>
-      </c>
-      <c r="D70">
-        <v>81</v>
-      </c>
-      <c r="E70">
-        <v>46</v>
-      </c>
-      <c r="F70">
-        <v>58</v>
-      </c>
-      <c r="G70">
-        <v>65</v>
-      </c>
-      <c r="H70">
-        <v>69</v>
-      </c>
-      <c r="I70" t="s">
-        <v>125</v>
-      </c>
-      <c r="J70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71">
-        <v>54</v>
-      </c>
-      <c r="D71">
-        <v>69</v>
-      </c>
-      <c r="E71">
-        <v>50</v>
-      </c>
-      <c r="F71">
-        <v>79</v>
-      </c>
-      <c r="G71">
-        <v>70</v>
-      </c>
-      <c r="H71">
-        <v>70</v>
-      </c>
-      <c r="I71" t="s">
-        <v>125</v>
-      </c>
-      <c r="J71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" t="s">
-        <v>66</v>
-      </c>
-      <c r="C72">
-        <v>74</v>
-      </c>
-      <c r="D72">
-        <v>64</v>
-      </c>
-      <c r="E72">
-        <v>75</v>
-      </c>
-      <c r="F72">
-        <v>50</v>
-      </c>
-      <c r="G72">
-        <v>91</v>
-      </c>
-      <c r="H72">
-        <v>50</v>
-      </c>
-      <c r="I72" t="s">
-        <v>125</v>
-      </c>
-      <c r="J72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73">
-        <v>58</v>
-      </c>
-      <c r="D73">
-        <v>64</v>
-      </c>
-      <c r="E73">
-        <v>78</v>
-      </c>
-      <c r="F73">
-        <v>56</v>
-      </c>
-      <c r="G73">
-        <v>50</v>
-      </c>
-      <c r="H73">
-        <v>59</v>
-      </c>
-      <c r="I73" t="s">
-        <v>125</v>
-      </c>
-      <c r="J73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74">
-        <v>66</v>
-      </c>
-      <c r="D74">
-        <v>53</v>
-      </c>
-      <c r="E74">
-        <v>51</v>
-      </c>
-      <c r="F74">
-        <v>56</v>
-      </c>
-      <c r="G74">
-        <v>58</v>
-      </c>
-      <c r="H74">
-        <v>50</v>
-      </c>
-      <c r="I74" t="s">
-        <v>125</v>
-      </c>
-      <c r="J74">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75">
-        <v>67</v>
-      </c>
-      <c r="D75">
-        <v>50</v>
-      </c>
-      <c r="E75">
-        <v>54</v>
-      </c>
-      <c r="F75">
-        <v>61</v>
-      </c>
-      <c r="G75">
-        <v>58</v>
-      </c>
-      <c r="H75">
-        <v>59</v>
-      </c>
-      <c r="I75" t="s">
-        <v>125</v>
-      </c>
-      <c r="J75">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76">
-        <v>67</v>
-      </c>
-      <c r="D76">
-        <v>50</v>
-      </c>
-      <c r="E76">
-        <v>66</v>
-      </c>
-      <c r="F76">
-        <v>57</v>
-      </c>
-      <c r="G76">
-        <v>57</v>
-      </c>
-      <c r="H76">
-        <v>55</v>
-      </c>
-      <c r="I76" t="s">
-        <v>125</v>
-      </c>
-      <c r="J76">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77">
-        <v>50</v>
-      </c>
-      <c r="D77">
-        <v>70</v>
-      </c>
-      <c r="E77">
-        <v>55</v>
-      </c>
-      <c r="F77">
-        <v>60</v>
-      </c>
-      <c r="G77">
-        <v>58</v>
-      </c>
-      <c r="H77">
-        <v>76</v>
-      </c>
-      <c r="I77" t="s">
-        <v>125</v>
-      </c>
-      <c r="J77">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
         <v>88</v>
       </c>
     </row>
